--- a/data/trans_orig/Q25B01-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q25B01-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>20.6740066791603</v>
+        <v>20.99515648672168</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>19.78700084227445</v>
+        <v>19.59003530011211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.35806672723221</v>
+        <v>15.49840120712934</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.97139984297349</v>
+        <v>18.11798155568789</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>11.70297223284026</v>
+        <v>11.80968615667618</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.024519154727113</v>
+        <v>9.446570639040385</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>9.729851007891378</v>
+        <v>9.46868005712175</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>10.13434144298879</v>
+        <v>10.25301817107516</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>18.63536251126736</v>
+        <v>18.71113080431078</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16.93893458875207</v>
+        <v>16.82315600484662</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13.51115197406065</v>
+        <v>13.78985277105713</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>15.64777105948394</v>
+        <v>15.67882393944673</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>26.71742229382433</v>
+        <v>26.98556327439732</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.31613879135519</v>
+        <v>25.24349910497461</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.36880652508668</v>
+        <v>21.34998061283984</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.66141022166224</v>
+        <v>22.68187889841818</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.61027145084033</v>
+        <v>15.67332859914487</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.10794340788254</v>
+        <v>15.43192445498115</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.57617238882357</v>
+        <v>13.37704168105519</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.94935751286033</v>
+        <v>14.0138427978315</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>23.51159130241236</v>
+        <v>23.57427179918652</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21.52356294996265</v>
+        <v>21.25528209144204</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.59130582362612</v>
+        <v>18.01483262747254</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>19.09453472340089</v>
+        <v>19.28616480411618</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>17.71659767445278</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>15.22205979989809</v>
+        <v>15.2220597998981</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17.98891156065023</v>
+        <v>18.25863467813179</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>17.51254117176804</v>
+        <v>17.532884607211</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17.7256018887775</v>
+        <v>17.63928031499577</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14.96708781818236</v>
+        <v>15.29421192872107</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>8.483813679535089</v>
+        <v>8.533354662866788</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>12.40297152470381</v>
+        <v>12.05023359307976</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>12.65512765668727</v>
+        <v>12.6646003464261</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>10.21672695099326</v>
+        <v>10.0871602124955</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>14.93966077290411</v>
+        <v>15.17234965524519</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16.13627645909123</v>
+        <v>16.10406481822403</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15.74638413263751</v>
+        <v>15.83408239670709</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>13.7416968672822</v>
+        <v>13.67555177627242</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>23.39716638249642</v>
+        <v>23.50578422491187</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>24.27453301237657</v>
+        <v>23.98004703793485</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23.87388350876566</v>
+        <v>23.9552706823972</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19.62008731410885</v>
+        <v>19.50141045676438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>12.31153965213529</v>
+        <v>12.47289295478769</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.15020152374388</v>
+        <v>16.74567295872308</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.13238787867783</v>
+        <v>17.29143201445081</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>14.74530915378525</v>
+        <v>14.54581484008981</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>19.01504097438575</v>
+        <v>19.31243841955414</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20.90051437953727</v>
+        <v>20.73205674917769</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19.81968210061517</v>
+        <v>19.96539804146174</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>16.95360174210884</v>
+        <v>17.08103966326403</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>21.01109532088121</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22.34124066969703</v>
+        <v>22.34124066969702</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>14.70040838026377</v>
@@ -965,7 +965,7 @@
         <v>19.81858548242115</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>20.52712671701143</v>
+        <v>20.52712671701144</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>19.1023124169179</v>
+        <v>19.07923372223864</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>23.01792550818738</v>
+        <v>23.15825466136449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18.75981986443493</v>
+        <v>18.44450423481738</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20.23146216432709</v>
+        <v>19.87498626666023</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>11.72599478903007</v>
+        <v>11.19953939753835</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>10.71705600783761</v>
+        <v>10.59421537897812</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.027012858611807</v>
+        <v>8.399816322102822</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>9.251481944441679</v>
+        <v>9.423741018168583</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>18.10229739998071</v>
+        <v>18.19411890181908</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21.28942058315865</v>
+        <v>21.35114291527348</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17.83415169752691</v>
+        <v>17.58570553036946</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>18.47332939821548</v>
+        <v>18.37205457139908</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.50170008326695</v>
+        <v>24.29984607940374</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>29.61996680105209</v>
+        <v>29.60153255334496</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.81281475399831</v>
+        <v>23.97194325481503</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25.01873003189573</v>
+        <v>24.88649513417391</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.80008582445059</v>
+        <v>19.84129304074972</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>16.07666381577725</v>
+        <v>15.93264137453875</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.8197015758466</v>
+        <v>14.70571511043624</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.83419675927514</v>
+        <v>15.88400645559916</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>22.66425291591481</v>
+        <v>22.84040072361552</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27.11540305428158</v>
+        <v>27.00445638677255</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22.45607312461317</v>
+        <v>22.29309485352575</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>23.15310007181445</v>
+        <v>23.03897114332791</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>24.0195232550749</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21.31514265210882</v>
+        <v>21.31514265210883</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>13.28092389789438</v>
@@ -1101,7 +1101,7 @@
         <v>21.12263527486681</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>18.65986683111245</v>
+        <v>18.65986683111246</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>21.42872672911669</v>
+        <v>21.48190681535296</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>21.31284821021701</v>
+        <v>21.20189707924408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22.12445031594542</v>
+        <v>22.13761043975419</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19.53364342426738</v>
+        <v>19.51883385178121</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>11.09467028705407</v>
+        <v>11.01610997448785</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>13.31371555736624</v>
+        <v>13.4528876350164</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>11.85387314593353</v>
+        <v>12.01827885476773</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>10.60549187616289</v>
+        <v>10.73257636023999</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>19.67605886935316</v>
+        <v>19.81395835164613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19.62069137893192</v>
+        <v>19.61430736435863</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19.62013559395931</v>
+        <v>19.57046296230804</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.23332875014155</v>
+        <v>17.33788226570593</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>24.24788067053364</v>
+        <v>24.19677783823725</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.40958907762656</v>
+        <v>24.39745587842769</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26.08882305877478</v>
+        <v>26.0384758063226</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23.08229301610046</v>
+        <v>23.31681233203488</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>16.32419978777023</v>
+        <v>16.40329918619409</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.61635373730468</v>
+        <v>18.29038395205501</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>16.13631730059491</v>
+        <v>16.21564842501076</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>13.81523514315874</v>
+        <v>13.69925448085406</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>22.27110135741263</v>
+        <v>22.26871228808464</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>22.35674294671544</v>
+        <v>22.38441884691922</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22.76667978273337</v>
+        <v>22.93030512144635</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>20.07648654998866</v>
+        <v>20.15132363389631</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>17.63596489616936</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>17.94752703062895</v>
+        <v>17.94752703062894</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>20.15275055328786</v>
+        <v>19.79426230386773</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.83836500860567</v>
+        <v>21.10350882107408</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18.87719095354282</v>
+        <v>18.86906110460571</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19.22254076984305</v>
+        <v>19.20303426975789</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>10.39263639343348</v>
+        <v>10.23311179847228</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>10.49217264809902</v>
+        <v>10.62765405718923</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>9.989255734283669</v>
+        <v>10.11460214891311</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>11.66878575073312</v>
+        <v>11.59883646074058</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.91671835262841</v>
+        <v>16.92560150422275</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17.5843682242835</v>
+        <v>17.52544627727149</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15.93026745917774</v>
+        <v>15.94496883271179</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.1958844073605</v>
+        <v>16.12095862089887</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>27.62553539776304</v>
+        <v>26.70361190210329</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.10997158744666</v>
+        <v>26.10938308563614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24.21476850330036</v>
+        <v>24.24262331325259</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24.85631962548528</v>
+        <v>24.79452105256093</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.37783083417114</v>
+        <v>17.95931210078129</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.04954995775975</v>
+        <v>13.95190586028598</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.95116741551813</v>
+        <v>13.92347625258768</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.50174762040541</v>
+        <v>15.31547032292114</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>22.31196686543494</v>
+        <v>22.36006776704644</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21.66834407027596</v>
+        <v>21.80523437327183</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19.60484220399942</v>
+        <v>19.86321788837687</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>19.76890811898041</v>
+        <v>19.90651292203178</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.60693826556945</v>
+        <v>7.245207697503888</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8.938182231750998</v>
+        <v>8.252620754274234</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.704966063059858</v>
+        <v>5.229179236900396</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9.232717886556291</v>
+        <v>8.760188446401964</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>9.014080153990033</v>
+        <v>9.236514343613281</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>8.94060886490176</v>
+        <v>8.85041450597944</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>13.03644847958628</v>
+        <v>12.80250933853729</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>10.02250126303318</v>
+        <v>10.02178419857117</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>9.399107243686943</v>
+        <v>9.348893200293039</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9.892820487457687</v>
+        <v>9.819932081959108</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13.0864275786335</v>
+        <v>13.16847787222787</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>10.37784392604497</v>
+        <v>10.72865679629091</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.18099069202198</v>
+        <v>17.49156125022199</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>29.75667215953926</v>
+        <v>29.63634821962475</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.8471790787476</v>
+        <v>18.06978572573514</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24.26835991089844</v>
+        <v>24.55254826817601</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>12.97770804350168</v>
+        <v>12.8946990790919</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>13.7272843364417</v>
+        <v>13.89874700877056</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>21.3523081086423</v>
+        <v>21.066449512323</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>14.62641087366606</v>
+        <v>14.566897146401</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>13.00001192397824</v>
+        <v>12.81432036340103</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14.64006895758696</v>
+        <v>14.57228127821097</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21.30036708261828</v>
+        <v>20.2697396026224</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>15.01509850933197</v>
+        <v>15.19183401194402</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>21.58328284465007</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20.62674563323552</v>
+        <v>20.62674563323551</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>12.58563538202261</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>21.34568028927532</v>
+        <v>21.45670016583805</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>22.07454994726944</v>
+        <v>21.99371966756952</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>20.38443395249116</v>
+        <v>20.46335378456387</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19.57205846935077</v>
+        <v>19.58443359144382</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>11.59858788713487</v>
+        <v>11.59078314957636</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.36562675173684</v>
+        <v>12.37715685442025</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>12.36260986081484</v>
+        <v>12.26392243634224</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>11.67857765558162</v>
+        <v>11.57218938010085</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>18.75369281185357</v>
+        <v>18.74928514410654</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19.2052152286428</v>
+        <v>19.16526879108734</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17.78232036179453</v>
+        <v>17.85434920125487</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>16.91872928375205</v>
+        <v>16.96581633386235</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.42471449017438</v>
+        <v>23.46167530985471</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.30099126651498</v>
+        <v>24.24703006013635</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22.72632639639552</v>
+        <v>22.82103586617465</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21.64963194536655</v>
+        <v>21.60092195276472</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.85221239069861</v>
+        <v>13.70280423409532</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.48544175899311</v>
+        <v>14.58238713685159</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>14.42717932216388</v>
+        <v>14.31675488992147</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.34627126120846</v>
+        <v>13.31762149894767</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>20.47003434272695</v>
+        <v>20.4251318655864</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20.92829477894328</v>
+        <v>20.94728485483273</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>19.57295818064441</v>
+        <v>19.49921004267877</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>18.4916976636403</v>
+        <v>18.41889743427695</v>
       </c>
     </row>
     <row r="25">
